--- a/orders.xlsx
+++ b/orders.xlsx
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1695</v>
+        <v>1775</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>493</v>
+        <v>531</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1866</v>
+        <v>1953</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2644</v>
+        <v>2794</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2769</v>
+        <v>2912</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2459</v>
+        <v>2606</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>926</v>
+        <v>969</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1386</v>
+        <v>1570</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1129</v>
+        <v>1263</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>909</v>
+        <v>1019</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>841</v>
+        <v>872</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>727</v>
+        <v>756</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1168</v>
+        <v>1232</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1286</v>
+        <v>1366</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1124</v>
+        <v>1172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>398</v>
+        <v>416</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>963</v>
+        <v>1020</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>615</v>
+        <v>661</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>400</v>
+        <v>427</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1295</v>
+        <v>1385</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>975</v>
+        <v>1035</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1320</v>
+        <v>1409</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1515</v>
+        <v>1623</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1539</v>
+        <v>1660</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1775</v>
+        <v>1805</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1953</v>
+        <v>1990</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2794</v>
+        <v>2836</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2912</v>
+        <v>2962</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2606</v>
+        <v>2653</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>969</v>
+        <v>985</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1570</v>
+        <v>1645</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1263</v>
+        <v>1312</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1019</v>
+        <v>1068</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1232</v>
+        <v>1254</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1366</v>
+        <v>1388</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1172</v>
+        <v>1185</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1020</v>
+        <v>1036</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1385</v>
+        <v>1415</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1035</v>
+        <v>1059</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1409</v>
+        <v>1441</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1623</v>
+        <v>1647</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1660</v>
+        <v>1695</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>463</v>
+        <v>501</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>539</v>
+        <v>588</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2898,60 +2898,60 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Indiejewel Fashions Private Limited</t>
+          <t>Glaucus Supply Chain Solutions Pvt  Ltd  85 2, Koraluru</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1805</v>
+        <v>1</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[12.9330888, 77.53949490000001]</t>
+          <t>[12.9881316, 77.78208819999999]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Indiejewel Fashions Private Limited</t>
+          <t>Glaucus Supply Chain Solutions Pvt  Ltd  85 2, Koraluru</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>538</v>
+        <v>1</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[12.9330888, 77.53949490000001]</t>
+          <t>[12.9881316, 77.78208819999999]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -2963,11 +2963,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1990</v>
+        <v>1897</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -2993,11 +2993,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2836</v>
+        <v>568</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3023,11 +3023,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2962</v>
+        <v>2116</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3053,11 +3053,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2653</v>
+        <v>2998</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3066,12 +3066,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -3083,11 +3083,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>434</v>
+        <v>3142</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>985</v>
+        <v>2806</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3126,12 +3126,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3143,11 +3143,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>663</v>
+        <v>454</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3168,25 +3168,25 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
+          <t>Indiejewel Fashions Private Limited</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>85</v>
+        <v>1037</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[12.9413747, 77.5250279]</t>
+          <t>[12.9330888, 77.53949490000001]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3198,25 +3198,25 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
+          <t>Indiejewel Fashions Private Limited</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>534</v>
+        <v>694</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[12.9413747, 77.5250279]</t>
+          <t>[12.9330888, 77.53949490000001]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3233,11 +3233,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3263,11 +3263,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1645</v>
+        <v>590</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3293,11 +3293,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1312</v>
+        <v>197</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3323,11 +3323,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1068</v>
+        <v>1859</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3336,12 +3336,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -3353,11 +3353,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>376</v>
+        <v>1475</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3383,11 +3383,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>363</v>
+        <v>1169</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3438,55 +3438,55 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jigni</t>
+          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>882</v>
+        <v>392</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[12.7856782, 77.63003049999999]</t>
+          <t>[12.9413747, 77.5250279]</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Jigni</t>
+          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>387</v>
+        <v>123</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[12.7856782, 77.63003049999999]</t>
+          <t>[12.9413747, 77.5250279]</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3503,11 +3503,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>770</v>
+        <v>920</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3516,12 +3516,12 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3533,11 +3533,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1254</v>
+        <v>409</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3563,11 +3563,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1388</v>
+        <v>801</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -3593,11 +3593,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1185</v>
+        <v>1305</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3606,12 +3606,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>267</v>
+        <v>1448</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3653,11 +3653,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>387</v>
+        <v>1232</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3666,12 +3666,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3683,11 +3683,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3708,55 +3708,55 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 1</t>
+          <t>Jigni</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[12.9333767, 77.5963271]</t>
+          <t>[12.7856782, 77.63003049999999]</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 1</t>
+          <t>Jigni</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[12.9333767, 77.5963271]</t>
+          <t>[12.7856782, 77.63003049999999]</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3773,11 +3773,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>542</v>
+        <v>450</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3786,12 +3786,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3803,11 +3803,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>883</v>
+        <v>248</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3833,11 +3833,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>1036</v>
+        <v>588</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -3863,11 +3863,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>671</v>
+        <v>964</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3876,12 +3876,12 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -3893,11 +3893,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>144</v>
+        <v>1109</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3923,11 +3923,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>308</v>
+        <v>742</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3978,60 +3978,60 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 2</t>
+          <t>Ketch Bangalore 1</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[12.9333767, 77.5963271]</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 2</t>
+          <t>Ketch Bangalore 1</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>[12.7714421, 77.714183]</t>
+          <t>[12.9333767, 77.5963271]</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4043,11 +4043,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4056,12 +4056,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -4086,12 +4086,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4103,11 +4103,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4133,11 +4133,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>239</v>
+        <v>118</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4193,11 +4193,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4223,11 +4223,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4253,11 +4253,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>437</v>
+        <v>383</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4283,11 +4283,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4296,12 +4296,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4313,11 +4313,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>293</v>
+        <v>462</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4343,11 +4343,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>54</v>
+        <v>322</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4373,11 +4373,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>54</v>
+        <v>322</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -4433,11 +4433,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -4463,11 +4463,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4493,11 +4493,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4506,72 +4506,72 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>PRX_Warehouse</t>
+          <t>Ketch Bangalore 2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>[12.9071221, 77.64909449999999]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>PRX_Warehouse</t>
+          <t>Ketch Bangalore 2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>[12.9071221, 77.64909449999999]</t>
+          <t>[12.7714421, 77.714183]</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4583,11 +4583,11 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -4613,11 +4613,11 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -4643,11 +4643,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4656,12 +4656,12 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4673,11 +4673,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4686,12 +4686,12 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4703,11 +4703,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -4733,11 +4733,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -4788,55 +4788,55 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SNITCH WO</t>
+          <t>PRX_Warehouse</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1415</v>
+        <v>32</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[13.0062992, 77.6002575]</t>
+          <t>[12.9071221, 77.64909449999999]</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SNITCH WO</t>
+          <t>PRX_Warehouse</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>392</v>
+        <v>27</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>[13.0062992, 77.6002575]</t>
+          <t>[12.9071221, 77.64909449999999]</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4853,11 +4853,11 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1059</v>
+        <v>1521</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4866,12 +4866,12 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4883,11 +4883,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1441</v>
+        <v>420</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4913,11 +4913,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1647</v>
+        <v>1148</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -4943,11 +4943,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1695</v>
+        <v>1573</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4956,12 +4956,12 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4973,11 +4973,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>258</v>
+        <v>1794</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5003,11 +5003,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>395</v>
+        <v>1866</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5016,12 +5016,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5033,11 +5033,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5058,55 +5058,55 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Survey No  1 1B 1 2P  Gangadharanaplya Village Kasaba Hobli  Neelmangla Taluk</t>
+          <t>SNITCH WO</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>440</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[13.0062992, 77.6002575]</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Survey No  1 1B 1 2P  Gangadharanaplya Village Kasaba Hobli  Neelmangla Taluk</t>
+          <t>SNITCH WO</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2</v>
+        <v>306</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[13.0062992, 77.6002575]</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5123,11 +5123,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -5136,12 +5136,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5153,11 +5153,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5183,11 +5183,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -5213,11 +5213,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5243,11 +5243,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5268,25 +5268,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
+          <t>Survey No  1 1B 1 2P  Gangadharanaplya Village Kasaba Hobli  Neelmangla Taluk</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>[12.9715987, 77.5945627]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5298,25 +5298,25 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
+          <t>Survey No  1 1B 1 2P  Gangadharanaplya Village Kasaba Hobli  Neelmangla Taluk</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[12.9715987, 77.5945627]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5333,11 +5333,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5346,12 +5346,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5363,11 +5363,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5393,11 +5393,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5423,11 +5423,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5436,12 +5436,12 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5453,11 +5453,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5483,11 +5483,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -5496,12 +5496,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5538,55 +5538,55 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Survey No 85,Koralur Village,NH 207</t>
+          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>[13.3026074, 77.5501506]</t>
+          <t>[12.9715987, 77.5945627]</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Survey No 85,Koralur Village,NH 207</t>
+          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[13.3026074, 77.5501506]</t>
+          <t>[12.9715987, 77.5945627]</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5603,11 +5603,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -5616,12 +5616,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5633,11 +5633,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5663,11 +5663,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -5748,12 +5748,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Tru Vitals Bangalore</t>
+          <t>Survey No 85,Koralur Village,NH 207</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>[13.0229725, 77.67010549999999]</t>
+          <t>[13.3026074, 77.5501506]</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -5778,25 +5778,25 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Tru Vitals Bangalore</t>
+          <t>Survey No 85,Koralur Village,NH 207</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>[13.0229725, 77.67010549999999]</t>
+          <t>[13.3026074, 77.5501506]</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5813,11 +5813,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5843,7 +5843,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5873,11 +5873,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5903,11 +5903,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5933,11 +5933,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5976,67 +5976,67 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Vaaree Warehouse</t>
+          <t>Tru Vitals Bangalore</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>[13.057298, 77.69993649999999]</t>
+          <t>[13.0229725, 77.67010549999999]</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Vaaree Warehouse</t>
+          <t>Tru Vitals Bangalore</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>[13.057298, 77.69993649999999]</t>
+          <t>[13.0229725, 77.67010549999999]</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6053,11 +6053,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6083,11 +6083,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6096,12 +6096,12 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6113,11 +6113,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -6126,12 +6126,12 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -6173,11 +6173,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -6203,11 +6203,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -6216,12 +6216,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6233,23 +6233,83 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
+          <t>STNG</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>12</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[13.057298, 77.69993649999999]</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[12.9594816, 77.59276179999999]</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Vaaree Warehouse</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>UTTR</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>27</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[13.057298, 77.69993649999999]</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[12.8743079, 77.55229159999999]</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Vaaree Warehouse</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
           <t>YLHK</t>
         </is>
       </c>
-      <c r="C194" t="n">
+      <c r="C196" t="n">
         <v>10</v>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>[13.057298, 77.69993649999999]</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>Fixed</t>
         </is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2873,11 +2873,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -2903,11 +2903,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -2958,60 +2958,60 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Indiejewel Fashions Private Limited</t>
+          <t>Glaucus Supply Chain Solutions Pvt  Ltd  85 2, Koraluru</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1897</v>
+        <v>1</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[12.9330888, 77.53949490000001]</t>
+          <t>[12.9881316, 77.78208819999999]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Indiejewel Fashions Private Limited</t>
+          <t>Glaucus Supply Chain Solutions Pvt  Ltd  85 2, Koraluru</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>568</v>
+        <v>1</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[12.9330888, 77.53949490000001]</t>
+          <t>[12.9881316, 77.78208819999999]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3023,11 +3023,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2116</v>
+        <v>1930</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3053,11 +3053,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2998</v>
+        <v>575</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3083,11 +3083,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3142</v>
+        <v>2156</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3113,11 +3113,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2806</v>
+        <v>3057</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3126,12 +3126,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -3143,11 +3143,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>454</v>
+        <v>3207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3173,11 +3173,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1037</v>
+        <v>2870</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3186,12 +3186,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3203,11 +3203,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>694</v>
+        <v>460</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3228,25 +3228,25 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
+          <t>Indiejewel Fashions Private Limited</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>84</v>
+        <v>1049</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[12.9413747, 77.5250279]</t>
+          <t>[12.9330888, 77.53949490000001]</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3258,25 +3258,25 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
+          <t>Indiejewel Fashions Private Limited</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>590</v>
+        <v>704</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[12.9413747, 77.5250279]</t>
+          <t>[12.9330888, 77.53949490000001]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -3293,11 +3293,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -3323,11 +3323,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1859</v>
+        <v>597</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -3353,11 +3353,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1475</v>
+        <v>197</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -3383,11 +3383,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1169</v>
+        <v>1899</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3396,12 +3396,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>404</v>
+        <v>1496</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -3443,11 +3443,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>392</v>
+        <v>1211</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3456,12 +3456,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3473,11 +3473,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>123</v>
+        <v>411</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -3498,55 +3498,55 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jigni</t>
+          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>920</v>
+        <v>399</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[12.7856782, 77.63003049999999]</t>
+          <t>[12.9413747, 77.5250279]</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Jigni</t>
+          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[12.7856782, 77.63003049999999]</t>
+          <t>[12.9413747, 77.5250279]</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -3563,11 +3563,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>801</v>
+        <v>929</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3576,12 +3576,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3593,11 +3593,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1305</v>
+        <v>415</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -3623,11 +3623,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1448</v>
+        <v>808</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -3653,11 +3653,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1232</v>
+        <v>1318</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3666,12 +3666,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -3683,11 +3683,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>277</v>
+        <v>1464</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -3713,11 +3713,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>399</v>
+        <v>1243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3726,12 +3726,12 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3743,11 +3743,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -3768,55 +3768,55 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 1</t>
+          <t>Jigni</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>450</v>
+        <v>401</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[12.9333767, 77.5963271]</t>
+          <t>[12.7856782, 77.63003049999999]</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 1</t>
+          <t>Jigni</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[12.9333767, 77.5963271]</t>
+          <t>[12.7856782, 77.63003049999999]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -3833,11 +3833,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>588</v>
+        <v>459</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3846,12 +3846,12 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3863,11 +3863,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>964</v>
+        <v>248</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -3893,11 +3893,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1109</v>
+        <v>598</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -3923,11 +3923,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>742</v>
+        <v>976</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3936,12 +3936,12 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -3953,11 +3953,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>162</v>
+        <v>1125</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -3983,11 +3983,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>332</v>
+        <v>751</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3996,12 +3996,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4013,11 +4013,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4038,60 +4038,60 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 2</t>
+          <t>Ketch Bangalore 1</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>190</v>
+        <v>336</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[12.9333767, 77.5963271]</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 2</t>
+          <t>Ketch Bangalore 1</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[12.7714421, 77.714183]</t>
+          <t>[12.9333767, 77.5963271]</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4103,11 +4103,11 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4133,11 +4133,11 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4163,11 +4163,11 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4193,11 +4193,11 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4206,12 +4206,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4223,11 +4223,11 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -4253,11 +4253,11 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4283,11 +4283,11 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4313,11 +4313,11 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>462</v>
+        <v>389</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4343,11 +4343,11 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>322</v>
+        <v>468</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4373,11 +4373,11 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>322</v>
+        <v>468</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4403,11 +4403,11 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>59</v>
+        <v>325</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4416,12 +4416,12 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4433,11 +4433,11 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>59</v>
+        <v>325</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4446,12 +4446,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4463,11 +4463,11 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -4493,11 +4493,11 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>162</v>
+        <v>59</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -4523,11 +4523,11 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -4553,11 +4553,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4566,72 +4566,72 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PRX_Warehouse</t>
+          <t>Ketch Bangalore 2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>[12.9071221, 77.64909449999999]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>PRX_Warehouse</t>
+          <t>Ketch Bangalore 2</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>[12.9071221, 77.64909449999999]</t>
+          <t>[12.7714421, 77.714183]</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4643,11 +4643,11 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -4673,11 +4673,11 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -4703,11 +4703,11 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4716,12 +4716,12 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4733,11 +4733,11 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4763,11 +4763,11 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -4793,11 +4793,11 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4806,12 +4806,12 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4848,55 +4848,55 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SNITCH WO</t>
+          <t>PRX_Warehouse</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1521</v>
+        <v>32</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>[13.0062992, 77.6002575]</t>
+          <t>[12.9071221, 77.64909449999999]</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SNITCH WO</t>
+          <t>PRX_Warehouse</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>420</v>
+        <v>27</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>[13.0062992, 77.6002575]</t>
+          <t>[12.9071221, 77.64909449999999]</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4913,11 +4913,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1148</v>
+        <v>1551</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4926,12 +4926,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -4943,11 +4943,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1573</v>
+        <v>426</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4973,11 +4973,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1794</v>
+        <v>1172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5003,11 +5003,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1866</v>
+        <v>1605</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5016,12 +5016,12 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5033,11 +5033,11 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>270</v>
+        <v>1833</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5063,11 +5063,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>440</v>
+        <v>1923</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5076,12 +5076,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5093,11 +5093,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5118,55 +5118,55 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Survey No  1 1B 1 2P  Gangadharanaplya Village Kasaba Hobli  Neelmangla Taluk</t>
+          <t>SNITCH WO</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[13.0062992, 77.6002575]</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Survey No  1 1B 1 2P  Gangadharanaplya Village Kasaba Hobli  Neelmangla Taluk</t>
+          <t>SNITCH WO</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2</v>
+        <v>311</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[13.0062992, 77.6002575]</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5183,11 +5183,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5196,12 +5196,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5213,11 +5213,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -5243,11 +5243,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5273,11 +5273,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -5286,12 +5286,12 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5303,11 +5303,11 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -5328,25 +5328,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
+          <t>Survey No  1 1B 1 2P  Gangadharanaplya Village Kasaba Hobli  Neelmangla Taluk</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>[12.9715987, 77.5945627]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -5358,25 +5358,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
+          <t>Survey No  1 1B 1 2P  Gangadharanaplya Village Kasaba Hobli  Neelmangla Taluk</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>[12.9715987, 77.5945627]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -5406,12 +5406,12 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5423,11 +5423,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5453,11 +5453,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -5483,11 +5483,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -5496,12 +5496,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5543,11 +5543,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5573,11 +5573,11 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -5598,55 +5598,55 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Survey No 85,Koralur Village,NH 207</t>
+          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>[13.3026074, 77.5501506]</t>
+          <t>[12.9715987, 77.5945627]</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Survey No 85,Koralur Village,NH 207</t>
+          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>[13.3026074, 77.5501506]</t>
+          <t>[12.9715987, 77.5945627]</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5663,11 +5663,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5676,12 +5676,12 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5693,11 +5693,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5723,11 +5723,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -5766,12 +5766,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -5796,7 +5796,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5808,12 +5808,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Tru Vitals Bangalore</t>
+          <t>Survey No 85,Koralur Village,NH 207</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>[13.0229725, 77.67010549999999]</t>
+          <t>[13.3026074, 77.5501506]</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5838,25 +5838,25 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Tru Vitals Bangalore</t>
+          <t>Survey No 85,Koralur Village,NH 207</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[13.0229725, 77.67010549999999]</t>
+          <t>[13.3026074, 77.5501506]</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -5873,11 +5873,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -5916,12 +5916,12 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5933,11 +5933,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5946,12 +5946,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5963,11 +5963,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -5993,11 +5993,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -6023,11 +6023,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -6036,67 +6036,67 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Vaaree Warehouse</t>
+          <t>Tru Vitals Bangalore</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>[13.057298, 77.69993649999999]</t>
+          <t>[13.0229725, 77.67010549999999]</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Vaaree Warehouse</t>
+          <t>Tru Vitals Bangalore</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>[13.057298, 77.69993649999999]</t>
+          <t>[13.0229725, 77.67010549999999]</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6113,11 +6113,11 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -6143,11 +6143,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -6156,12 +6156,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6173,11 +6173,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -6186,12 +6186,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6203,11 +6203,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -6233,11 +6233,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -6263,11 +6263,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -6276,12 +6276,12 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6293,23 +6293,83 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
+          <t>STNG</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>13</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[13.057298, 77.69993649999999]</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[12.9594816, 77.59276179999999]</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Vaaree Warehouse</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>UTTR</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>27</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[13.057298, 77.69993649999999]</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[12.8743079, 77.55229159999999]</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Vaaree Warehouse</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
           <t>YLHK</t>
         </is>
       </c>
-      <c r="C196" t="n">
+      <c r="C198" t="n">
         <v>10</v>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>[13.057298, 77.69993649999999]</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>Fixed</t>
         </is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1899</v>
+        <v>1905</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1930</v>
+        <v>1934</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2157</v>
+        <v>2163</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3057</v>
+        <v>3066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3206</v>
+        <v>3210</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2870</v>
+        <v>2875</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1605</v>
+        <v>1610</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1831</v>
+        <v>1834</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1924</v>
+        <v>1931</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1934</v>
+        <v>1946</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2163</v>
+        <v>2172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3066</v>
+        <v>3078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3210</v>
+        <v>3214</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2875</v>
+        <v>2884</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1908</v>
+        <v>1924</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1215</v>
+        <v>1226</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1319</v>
+        <v>1323</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1132</v>
+        <v>1141</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1554</v>
+        <v>1573</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1610</v>
+        <v>1622</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1834</v>
+        <v>1851</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1931</v>
+        <v>1951</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F382"/>
+  <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1070</v>
+        <v>1397</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>362</v>
+        <v>471</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1137</v>
+        <v>1526</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1542</v>
+        <v>2100</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1708</v>
+        <v>2221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1554</v>
+        <v>2006</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>630</v>
+        <v>826</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>341</v>
+        <v>439</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>368</v>
+        <v>481</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>343</v>
+        <v>455</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>431</v>
+        <v>573</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>252</v>
+        <v>327</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>260</v>
+        <v>354</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>412</v>
+        <v>549</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>508</v>
+        <v>653</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>752</v>
+        <v>1020</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>746</v>
+        <v>1017</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>656</v>
+        <v>859</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>365</v>
+        <v>470</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>174</v>
+        <v>266</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>214</v>
+        <v>332</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>89</v>
+        <v>134</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>144</v>
+        <v>237</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>191</v>
+        <v>299</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>223</v>
+        <v>341</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>258</v>
+        <v>417</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>159</v>
+        <v>246</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1346</v>
+        <v>1740</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>152</v>
+        <v>195</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>587</v>
+        <v>791</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>657</v>
+        <v>767</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1095</v>
+        <v>1514</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>935</v>
+        <v>1147</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>456</v>
+        <v>583</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>433</v>
+        <v>548</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>480</v>
+        <v>641</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>628</v>
+        <v>814</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>738</v>
+        <v>934</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>692</v>
+        <v>862</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>618</v>
+        <v>675</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>595</v>
+        <v>658</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>181</v>
+        <v>249</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>304</v>
+        <v>434</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>539</v>
+        <v>796</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>350</v>
+        <v>543</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -4788,30 +4788,30 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Glaucus Supply Chain Solutions Pvt  Ltd  85 2, Koraluru</t>
+          <t>GIVA Bangalore</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>[12.9881316, 77.78208819999999]</t>
+          <t>[12.9330888, 77.53949490000001]</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -4823,11 +4823,11 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -4853,7 +4853,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -4866,7 +4866,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -4883,11 +4883,11 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -4913,11 +4913,11 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -4943,11 +4943,11 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -4973,11 +4973,11 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5003,11 +5003,11 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5028,30 +5028,30 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HK BLR</t>
+          <t>Glaucus Supply Chain Solutions Pvt  Ltd  85 2, Koraluru</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>590</v>
+        <v>2</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>[13.0700786, 77.4291142]</t>
+          <t>[12.9881316, 77.78208819999999]</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5063,11 +5063,11 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>234</v>
+        <v>849</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -5093,11 +5093,11 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>717</v>
+        <v>329</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5123,11 +5123,11 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1020</v>
+        <v>980</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -5153,11 +5153,11 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1112</v>
+        <v>1454</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -5183,11 +5183,11 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>999</v>
+        <v>1625</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -5196,12 +5196,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5213,11 +5213,11 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>168</v>
+        <v>1418</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -5226,12 +5226,12 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5243,11 +5243,11 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -5273,11 +5273,11 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>212</v>
+        <v>389</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -5298,30 +5298,30 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Honasa Consumer Limited Emiza Bangalore Aqua, C O Emiza Supply chain service Pvt Ltd,Sy no 83 1,Kachanahalli village, Buddihal post, Kasaba Hobli, Nelamagala ta</t>
+          <t>HK BLR</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>814</v>
+        <v>291</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[13.0700786, 77.4291142]</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5333,11 +5333,11 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>80</v>
+        <v>853</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -5346,12 +5346,12 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5363,11 +5363,11 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>476</v>
+        <v>87</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -5393,11 +5393,11 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>336</v>
+        <v>499</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -5423,11 +5423,11 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>764</v>
+        <v>348</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -5453,11 +5453,11 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>683</v>
+        <v>808</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -5466,12 +5466,12 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5483,11 +5483,11 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>137</v>
+        <v>696</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -5496,12 +5496,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5513,11 +5513,11 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -5543,11 +5543,11 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -5568,30 +5568,30 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Indiejewel Fashions Private Limited</t>
+          <t>Honasa Consumer Limited Emiza Bangalore Aqua, C O Emiza Supply chain service Pvt Ltd,Sy no 83 1,Kachanahalli village, Buddihal post, Kasaba Hobli, Nelamagala ta</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1193</v>
+        <v>180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>[12.9330888, 77.53949490000001]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5603,11 +5603,11 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>353</v>
+        <v>1420</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -5616,12 +5616,12 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5633,11 +5633,11 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1437</v>
+        <v>395</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -5663,11 +5663,11 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1794</v>
+        <v>1680</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -5693,11 +5693,11 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>2034</v>
+        <v>2094</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -5723,11 +5723,11 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1977</v>
+        <v>2365</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -5736,12 +5736,12 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5753,11 +5753,11 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>264</v>
+        <v>2352</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -5766,12 +5766,12 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5783,11 +5783,11 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>624</v>
+        <v>306</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -5813,11 +5813,11 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>390</v>
+        <v>734</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -5838,30 +5838,30 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
+          <t>Indiejewel Fashions Private Limited</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>82</v>
+        <v>448</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>[12.9413747, 77.5250279]</t>
+          <t>[12.9330888, 77.53949490000001]</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -5873,11 +5873,11 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>663</v>
+        <v>86</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -5903,11 +5903,11 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>196</v>
+        <v>831</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -5933,11 +5933,11 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>2617</v>
+        <v>205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -5963,11 +5963,11 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2019</v>
+        <v>3527</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -5993,11 +5993,11 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1587</v>
+        <v>2594</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -6006,12 +6006,12 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6023,11 +6023,11 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>451</v>
+        <v>2054</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -6036,12 +6036,12 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6053,11 +6053,11 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>397</v>
+        <v>604</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -6083,11 +6083,11 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>352</v>
+        <v>462</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -6108,30 +6108,30 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Jigni</t>
+          <t xml:space="preserve">Intellihealth solutions pvt ltd </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>534</v>
+        <v>489</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>[12.7856782, 77.63003049999999]</t>
+          <t>[12.9413747, 77.5250279]</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6143,11 +6143,11 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>272</v>
+        <v>691</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -6156,12 +6156,12 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6173,11 +6173,11 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>487</v>
+        <v>333</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -6186,12 +6186,12 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6203,11 +6203,11 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>810</v>
+        <v>661</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -6216,12 +6216,12 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6233,11 +6233,11 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>791</v>
+        <v>1056</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -6246,12 +6246,12 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6263,11 +6263,11 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>769</v>
+        <v>1023</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -6293,11 +6293,11 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>184</v>
+        <v>1050</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -6306,12 +6306,12 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6323,11 +6323,11 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -6353,11 +6353,11 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>172</v>
+        <v>325</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -6366,37 +6366,37 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Katha no 461 100 7, Comprised of Converted Survey No 100 4, Reserve Survey No</t>
+          <t>Jigni</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>422</v>
+        <v>211</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>[13.097301, 77.38563979999999]</t>
+          <t>[12.7856782, 77.63003049999999]</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -6413,11 +6413,11 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>104</v>
+        <v>537</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -6426,7 +6426,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -6443,11 +6443,11 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>406</v>
+        <v>159</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -6473,11 +6473,11 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -6503,11 +6503,11 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>663</v>
+        <v>812</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -6533,11 +6533,11 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>509</v>
+        <v>904</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -6546,12 +6546,12 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6563,11 +6563,11 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>109</v>
+        <v>691</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -6576,12 +6576,12 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6593,11 +6593,11 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -6623,11 +6623,11 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -6648,30 +6648,30 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 1</t>
+          <t>Katha no 461 100 7, Comprised of Converted Survey No 100 4, Reserve Survey No</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>[12.9333767, 77.5963271]</t>
+          <t>[13.097301, 77.38563979999999]</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6683,11 +6683,11 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -6696,12 +6696,12 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6713,11 +6713,11 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -6726,12 +6726,12 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6743,11 +6743,11 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>463</v>
+        <v>294</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -6756,12 +6756,12 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6773,11 +6773,11 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>558</v>
+        <v>463</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -6803,11 +6803,11 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>439</v>
+        <v>558</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -6816,12 +6816,12 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6833,11 +6833,11 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -6846,12 +6846,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6863,11 +6863,11 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>157</v>
+        <v>68</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -6893,11 +6893,11 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -6906,7 +6906,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -6918,30 +6918,30 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Ketch Bangalore 2</t>
+          <t>Ketch Bangalore 1</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>[12.7662063, 77.70228200000001]</t>
+          <t>[12.9333767, 77.5963271]</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -6953,11 +6953,11 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -6966,12 +6966,12 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -6983,11 +6983,11 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -6996,12 +6996,12 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -7013,11 +7013,11 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>202</v>
+        <v>120</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -7043,11 +7043,11 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -7073,11 +7073,11 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -7086,7 +7086,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -7103,11 +7103,11 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -7133,11 +7133,11 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -7163,11 +7163,11 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -7176,7 +7176,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -7188,25 +7188,25 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Manash Bangalore Warehouse</t>
+          <t>Ketch Bangalore 2</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>2542</v>
+        <v>34</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[12.7662063, 77.70228200000001]</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -7223,11 +7223,11 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1017</v>
+        <v>3117</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -7236,12 +7236,12 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -7253,11 +7253,11 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>2502</v>
+        <v>1364</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -7283,11 +7283,11 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>5111</v>
+        <v>2761</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -7313,11 +7313,11 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>5723</v>
+        <v>6585</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -7343,11 +7343,11 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>4611</v>
+        <v>7198</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -7356,12 +7356,12 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -7373,11 +7373,11 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1061</v>
+        <v>5586</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -7386,12 +7386,12 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -7403,11 +7403,11 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1994</v>
+        <v>1369</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -7433,11 +7433,11 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1182</v>
+        <v>2454</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -7458,25 +7458,25 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Mathru Shree Warehouse,Survey No 83 2 ,Kachanahalli</t>
+          <t>Manash Bangalore Warehouse</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>2037</v>
+        <v>1781</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>[13.077455, 77.364026]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -7493,11 +7493,11 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>214</v>
+        <v>2995</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -7506,7 +7506,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -7523,11 +7523,11 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1591</v>
+        <v>581</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -7536,7 +7536,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -7553,11 +7553,11 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1301</v>
+        <v>2566</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -7583,11 +7583,11 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2458</v>
+        <v>2903</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -7613,11 +7613,11 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1993</v>
+        <v>4188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -7626,12 +7626,12 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -7643,11 +7643,11 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>410</v>
+        <v>3122</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -7656,12 +7656,12 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -7673,11 +7673,11 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>815</v>
+        <v>625</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -7703,11 +7703,11 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>525</v>
+        <v>1560</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -7728,16 +7728,16 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>MW_Bangalore</t>
+          <t>Mathru Shree Warehouse,Survey No 83 2 ,Kachanahalli</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1869</v>
+        <v>863</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -7763,11 +7763,11 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1138</v>
+        <v>2383</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -7793,11 +7793,11 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>2705</v>
+        <v>1389</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -7823,11 +7823,11 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>4184</v>
+        <v>3411</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -7853,11 +7853,11 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>4419</v>
+        <v>5193</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -7866,7 +7866,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -7883,11 +7883,11 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>3016</v>
+        <v>5398</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -7896,12 +7896,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -7913,11 +7913,11 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>557</v>
+        <v>3856</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -7926,12 +7926,12 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -7943,11 +7943,11 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1298</v>
+        <v>699</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -7973,11 +7973,11 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>823</v>
+        <v>1635</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -7998,30 +7998,30 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Neemans Private Limited</t>
+          <t>MW_Bangalore</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>127</v>
+        <v>1033</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>[12.9556159, 77.8155015]</t>
+          <t>[13.077455, 77.364026]</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -8033,11 +8033,11 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -8046,7 +8046,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -8063,11 +8063,11 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -8093,11 +8093,11 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -8106,7 +8106,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -8123,11 +8123,11 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -8153,11 +8153,11 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>263</v>
+        <v>338</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -8183,11 +8183,11 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -8213,11 +8213,11 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -8243,11 +8243,11 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
@@ -8268,25 +8268,25 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>OZiva BLR</t>
+          <t>Neemans Private Limited</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>[13.0692593, 77.7982428]</t>
+          <t>[12.9556159, 77.8155015]</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
@@ -8303,11 +8303,11 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -8316,12 +8316,12 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -8333,11 +8333,11 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -8346,12 +8346,12 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -8363,11 +8363,11 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
@@ -8393,11 +8393,11 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -8406,7 +8406,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
@@ -8423,11 +8423,11 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -8453,11 +8453,11 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -8483,11 +8483,11 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
@@ -8513,11 +8513,11 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
@@ -8538,30 +8538,30 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Plum</t>
+          <t>OZiva BLR</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>[13.2186437, 77.2728205]</t>
+          <t>[13.0692593, 77.7982428]</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -8573,11 +8573,11 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>26</v>
+        <v>310</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
@@ -8603,11 +8603,11 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F273" t="inlineStr">
@@ -8633,11 +8633,11 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>125</v>
+        <v>397</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -8646,7 +8646,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -8663,11 +8663,11 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>123</v>
+        <v>593</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
@@ -8693,11 +8693,11 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>106</v>
+        <v>615</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -8706,12 +8706,12 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -8723,11 +8723,11 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>18</v>
+        <v>506</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -8736,12 +8736,12 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -8753,11 +8753,11 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
@@ -8783,11 +8783,11 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -8808,16 +8808,16 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Plum Bangalore</t>
+          <t>Plum</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>331</v>
+        <v>101</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -8826,7 +8826,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
@@ -8843,11 +8843,11 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>111</v>
+        <v>917</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
@@ -8873,11 +8873,11 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
@@ -8903,11 +8903,11 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>549</v>
+        <v>1044</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
@@ -8933,11 +8933,11 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>576</v>
+        <v>1580</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
@@ -8963,11 +8963,11 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>487</v>
+        <v>1696</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -8976,12 +8976,12 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -8993,11 +8993,11 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>51</v>
+        <v>1376</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -9006,12 +9006,12 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9023,11 +9023,11 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
@@ -9053,11 +9053,11 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>122</v>
+        <v>438</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
@@ -9078,30 +9078,30 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Prozo Bangalore</t>
+          <t>Plum Bangalore</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>878</v>
+        <v>351</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>[12.9093588, 77.57367649999999]</t>
+          <t>[13.2186437, 77.2728205]</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9113,11 +9113,11 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>267</v>
+        <v>1150</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9143,11 +9143,11 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>1646</v>
+        <v>356</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -9156,12 +9156,12 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9173,11 +9173,11 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>964</v>
+        <v>2261</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -9186,12 +9186,12 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9203,11 +9203,11 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1629</v>
+        <v>1287</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
@@ -9233,11 +9233,11 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C294" t="n">
-        <v>2237</v>
+        <v>2173</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -9246,12 +9246,12 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9263,11 +9263,11 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C295" t="n">
-        <v>196</v>
+        <v>3010</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -9276,12 +9276,12 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9293,11 +9293,11 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C296" t="n">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -9306,7 +9306,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
@@ -9323,11 +9323,11 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C297" t="n">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
@@ -9348,30 +9348,30 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>PRX_Warehouse</t>
+          <t>Prozo Bangalore</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>48</v>
+        <v>545</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>[12.9071221, 77.64909449999999]</t>
+          <t>[12.9093588, 77.57367649999999]</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9383,11 +9383,11 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C299" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -9396,12 +9396,12 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9413,11 +9413,11 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -9426,12 +9426,12 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9443,11 +9443,11 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C301" t="n">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -9456,12 +9456,12 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9473,11 +9473,11 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -9486,12 +9486,12 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9503,11 +9503,11 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -9533,11 +9533,11 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -9546,12 +9546,12 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9563,11 +9563,11 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C305" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -9593,11 +9593,11 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C306" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -9606,42 +9606,42 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Snitch Apparels Pvt Ltd</t>
+          <t>PRX_Warehouse</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>450</v>
+        <v>52</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>[12.9154515, 77.6344007]</t>
+          <t>[12.9071221, 77.64909449999999]</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9653,11 +9653,11 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>160</v>
+        <v>560</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -9666,12 +9666,12 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9683,11 +9683,11 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C309" t="n">
-        <v>416</v>
+        <v>199</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -9696,12 +9696,12 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9713,11 +9713,11 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C310" t="n">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -9726,12 +9726,12 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9743,11 +9743,11 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C311" t="n">
-        <v>621</v>
+        <v>669</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -9756,12 +9756,12 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9773,11 +9773,11 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>616</v>
+        <v>778</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
@@ -9803,11 +9803,11 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>78</v>
+        <v>791</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -9816,12 +9816,12 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9833,11 +9833,11 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -9846,7 +9846,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
@@ -9863,11 +9863,11 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
@@ -9888,30 +9888,30 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>SNITCH APPARELS PVT LTD NEL</t>
+          <t>Snitch Apparels Pvt Ltd</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>508</v>
+        <v>132</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[12.9154515, 77.6344007]</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -9923,11 +9923,11 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>144</v>
+        <v>697</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -9936,12 +9936,12 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -9953,11 +9953,11 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C318" t="n">
-        <v>426</v>
+        <v>198</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -9983,11 +9983,11 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>566</v>
+        <v>618</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -10013,11 +10013,11 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>672</v>
+        <v>772</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -10043,11 +10043,11 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C321" t="n">
-        <v>653</v>
+        <v>924</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -10056,12 +10056,12 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -10073,11 +10073,11 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C322" t="n">
-        <v>95</v>
+        <v>911</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -10086,12 +10086,12 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -10103,11 +10103,11 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C323" t="n">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -10133,11 +10133,11 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C324" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -10158,30 +10158,30 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>SNITCH WO</t>
+          <t>SNITCH APPARELS PVT LTD NEL</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C325" t="n">
-        <v>1269</v>
+        <v>161</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>[13.0062992, 77.6002575]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -10193,11 +10193,11 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C326" t="n">
-        <v>369</v>
+        <v>1753</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -10206,12 +10206,12 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -10223,11 +10223,11 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C327" t="n">
-        <v>1091</v>
+        <v>516</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -10253,11 +10253,11 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C328" t="n">
-        <v>1394</v>
+        <v>1551</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -10266,12 +10266,12 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -10283,11 +10283,11 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C329" t="n">
-        <v>1651</v>
+        <v>1925</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -10313,11 +10313,11 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C330" t="n">
-        <v>1753</v>
+        <v>2263</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -10326,12 +10326,12 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -10343,11 +10343,11 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C331" t="n">
-        <v>210</v>
+        <v>2398</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -10356,12 +10356,12 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -10373,11 +10373,11 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C332" t="n">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -10403,11 +10403,11 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C333" t="n">
-        <v>284</v>
+        <v>551</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -10428,30 +10428,30 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SSDC BNG</t>
+          <t>SNITCH WO</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C334" t="n">
-        <v>8</v>
+        <v>402</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>[12.9057133, 77.6931357]</t>
+          <t>[13.0062992, 77.6002575]</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -10463,11 +10463,11 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C335" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -10493,11 +10493,11 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C336" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -10523,11 +10523,11 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C337" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -10553,11 +10553,11 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C338" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -10583,11 +10583,11 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C339" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -10613,11 +10613,11 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C340" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -10643,11 +10643,11 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C341" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -10673,11 +10673,11 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C342" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -10698,30 +10698,30 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Survey No 1 1B, 1 2P, Gangadharanapalya Village Kasaba Hobli</t>
+          <t>SSDC BNG</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[12.9057133, 77.6931357]</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -10733,11 +10733,11 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -10758,30 +10758,30 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
+          <t>Survey No 1 1B, 1 2P, Gangadharanapalya Village Kasaba Hobli</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>[12.9715987, 77.5945627]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -10793,11 +10793,11 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -10806,12 +10806,12 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -10823,11 +10823,11 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C347" t="n">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -10836,7 +10836,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -10853,11 +10853,11 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -10866,12 +10866,12 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -10883,11 +10883,11 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C349" t="n">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -10913,11 +10913,11 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C350" t="n">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -10926,12 +10926,12 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -10943,11 +10943,11 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C351" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -10956,12 +10956,12 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -10973,11 +10973,11 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C352" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -10986,7 +10986,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -11003,11 +11003,11 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C353" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -11028,30 +11028,30 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Survey No 85,Koralur Village,NH 207</t>
+          <t>Survey No  15 Ground Floor, SY No  131 3, Hoskote, Anjaneya Garden IOC Road Near Marie Gold Logistics, Makanahalli Village,</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>[13.3026074, 77.5501506]</t>
+          <t>[12.9715987, 77.5945627]</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -11063,7 +11063,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -11076,12 +11076,12 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -11093,11 +11093,11 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -11106,7 +11106,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -11123,11 +11123,11 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -11153,11 +11153,11 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -11166,7 +11166,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -11183,11 +11183,11 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -11196,12 +11196,12 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -11213,11 +11213,11 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -11226,42 +11226,42 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Trusource Technology Private Limited</t>
+          <t>Survey No 85,Koralur Village,NH 207</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C361" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>[13.165214, 77.4092323]</t>
+          <t>[13.3026074, 77.5501506]</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -11273,11 +11273,11 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C362" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -11286,12 +11286,12 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -11303,11 +11303,11 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C363" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -11333,11 +11333,11 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C364" t="n">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -11363,11 +11363,11 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C365" t="n">
-        <v>182</v>
+        <v>262</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -11393,11 +11393,11 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C366" t="n">
-        <v>71</v>
+        <v>226</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -11406,12 +11406,12 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -11423,11 +11423,11 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C367" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -11436,12 +11436,12 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -11453,11 +11453,11 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C368" t="n">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -11466,7 +11466,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -11483,11 +11483,11 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>YLHK</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -11496,7 +11496,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>[13.0725756, 77.592424]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -11508,25 +11508,25 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Tru Vitals Bangalore</t>
+          <t>Trusource Technology Private Limited</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>YLHK</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>[13.0229725, 77.67010549999999]</t>
+          <t>[13.165214, 77.4092323]</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -11556,12 +11556,12 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -11573,7 +11573,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -11603,11 +11603,11 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -11616,42 +11616,42 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Vaaree Warehouse</t>
+          <t>Tru Vitals Bangalore</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>UTTR</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>[13.057298, 77.69993649999999]</t>
+          <t>[13.0229725, 77.67010549999999]</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>[12.9394122, 77.6921294]</t>
+          <t>[12.8743079, 77.55229159999999]</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -11663,11 +11663,11 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>CMRJ</t>
+          <t>BLDR</t>
         </is>
       </c>
       <c r="C375" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -11676,12 +11676,12 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>[12.9467756, 77.5519109]</t>
+          <t>[12.9394122, 77.6921294]</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -11693,11 +11693,11 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ECTY</t>
+          <t>CMRJ</t>
         </is>
       </c>
       <c r="C376" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -11706,12 +11706,12 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>[12.8307773, 77.6612892]</t>
+          <t>[12.9467756, 77.5519109]</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -11723,11 +11723,11 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>HBBL</t>
+          <t>ECTY</t>
         </is>
       </c>
       <c r="C377" t="n">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -11736,12 +11736,12 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>[13.0405585, 77.595625]</t>
+          <t>[12.8307773, 77.6612892]</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -11753,11 +11753,11 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>JPNR</t>
+          <t>HBBL</t>
         </is>
       </c>
       <c r="C378" t="n">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -11766,12 +11766,12 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>[12.9144032, 77.59958150000001]</t>
+          <t>[13.0405585, 77.595625]</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Fixed</t>
+          <t>New</t>
         </is>
       </c>
     </row>
@@ -11783,11 +11783,11 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>MRTH</t>
+          <t>JPNR</t>
         </is>
       </c>
       <c r="C379" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>[12.9497375, 77.6982656]</t>
+          <t>[12.9144032, 77.59958150000001]</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -11813,11 +11813,11 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>STNG</t>
+          <t>MRTH</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -11826,12 +11826,12 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>[12.9594816, 77.59276179999999]</t>
+          <t>[12.9497375, 77.6982656]</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>New</t>
+          <t>Fixed</t>
         </is>
       </c>
     </row>
@@ -11843,11 +11843,11 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>UTTR</t>
+          <t>STNG</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>[12.8743079, 77.55229159999999]</t>
+          <t>[12.9594816, 77.59276179999999]</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -11873,23 +11873,53 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
+          <t>UTTR</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>38</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>[13.057298, 77.69993649999999]</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>[12.8743079, 77.55229159999999]</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>Fixed</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Vaaree Warehouse</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
           <t>YLHK</t>
         </is>
       </c>
-      <c r="C382" t="n">
-        <v>9</v>
-      </c>
-      <c r="D382" t="inlineStr">
+      <c r="C383" t="n">
+        <v>16</v>
+      </c>
+      <c r="D383" t="inlineStr">
         <is>
           <t>[13.057298, 77.69993649999999]</t>
         </is>
       </c>
-      <c r="E382" t="inlineStr">
+      <c r="E383" t="inlineStr">
         <is>
           <t>[13.0725756, 77.592424]</t>
         </is>
       </c>
-      <c r="F382" t="inlineStr">
+      <c r="F383" t="inlineStr">
         <is>
           <t>New</t>
         </is>
